--- a/outputs-HGR-r202-archive/g__Enterococcus_D.xlsx
+++ b/outputs-HGR-r202-archive/g__Enterococcus_D.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,17 +625,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3499.fa</t>
+          <t>even_MAG-GUT3508.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.328362143922872</v>
+        <v>0.3389345929208898</v>
       </c>
       <c r="C8" t="n">
-        <v>0.671637856077128</v>
+        <v>0.6610654070791102</v>
       </c>
       <c r="D8" t="n">
-        <v>0.671637856077128</v>
+        <v>0.6610654070791102</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -651,17 +651,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3508.fa</t>
+          <t>even_MAG-GUT3553.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3389345929208898</v>
+        <v>0.3068931938121259</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6610654070791102</v>
+        <v>0.6931068061878741</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6610654070791102</v>
+        <v>0.6931068061878741</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -677,17 +677,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3553.fa</t>
+          <t>even_MAG-GUT67625.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3068931938121259</v>
+        <v>0.3336905663509095</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6931068061878741</v>
+        <v>0.6663094336490905</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6931068061878741</v>
+        <v>0.6663094336490905</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -695,84 +695,6 @@
         </is>
       </c>
       <c r="F10" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_D sp002850555</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT43457.fa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.3036693650517193</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6963306349482807</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.6963306349482807</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_D sp002850555</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_D sp002850555</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT67625.fa</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.3336905663509095</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6663094336490905</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.6663094336490905</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_D sp002850555</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_D sp002850555</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT945.fa</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.3115664341681526</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6884335658318474</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.6884335658318474</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_D sp002850555</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
         <is>
           <t>s__Enterococcus_D sp002850555</t>
         </is>
